--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340).xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="2"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="48">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
   <x:si>
     <x:t xml:space="preserve"> 1. 지인들과 조용하게 얘기하고 힙한 장소를 찾아서 커피 한잔하기 좋은 브랜드 아이덴티티의 컨셉 구축
  2. 편하고 조용하게 시간 보낼 수 있는 장소를 찾는 사용자들이 찾아오고 싶어하는 분위기의 웹사이트 구성 </x:t>
@@ -48,12 +48,6 @@
     <x:t>주제</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1. 까페 브랜드 아이덴티티를 반영한 신규 웹페이지를 구현하고 기존사용자 및 신규사용자의 유입 목적
-2. 시그니쳐 메뉴 및 신메뉴 출시 등 안내 페이지를 구현하여 사용자에게 가독성있고 정돈된 정보의 전달 목적 
-3. 조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승
-4. UI/UX 기획 제작 및 구성 요소 를 만들어 신규 페이지 구축 시 필요한 웹 디자인 &amp; 웹 퍼블리셔 능력  </x:t>
-  </x:si>
-  <x:si>
     <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
   </x:si>
   <x:si>
@@ -118,6 +112,9 @@
   <x:si>
     <x:t>메인화면
 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
   </x:si>
   <x:si>
     <x:t>MY INBODY</x:t>
@@ -165,19 +162,46 @@
     <x:t>ANGLE 340</x:t>
   </x:si>
   <x:si>
+    <x:t>캐릭터 모양 쿠키 일러화</x:t>
+  </x:si>
+  <x:si>
     <x:t>COFFEES &amp; DESSERTS</x:t>
   </x:si>
   <x:si>
     <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
   </x:si>
   <x:si>
-    <x:t>매력적인 요소 추가</x:t>
+    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹사이트 이미지 반영</x:t>
   </x:si>
   <x:si>
     <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
   </x:si>
   <x:si>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
     <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 까페 브랜드 아이덴티티를 반영한 신규 웹페이지를 구현하고 카페 정체성 전문적인 더 이미지
+2. 시그니쳐 메뉴 및 신메뉴 출시 등 안내 페이지를 구현하여 사용자에게 가독성있고 정돈된 정보의 전달 목적 
+3. 조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승
+4. UI/UX 기획 제작 및 구성 요소 를 만들어 신규 페이지 구축 시 필요한 웹 디자인 &amp; 웹 퍼블리셔 능력  </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -1304,7 +1328,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1347,7 +1371,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>11</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1357,10 +1381,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="12"/>
       <x:c r="D7" s="12"/>
@@ -1382,7 +1406,7 @@
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="11"/>
       <x:c r="B9" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="12"/>
       <x:c r="D9" s="12"/>
@@ -1392,10 +1416,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="5"/>
@@ -1406,7 +1430,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
         <x:v>37</x:v>
@@ -1419,7 +1443,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1429,18 +1453,18 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="11"/>
       <x:c r="D13" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
     </x:row>
@@ -1471,7 +1495,7 @@
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -1515,7 +1539,7 @@
       <x:c r="B20" s="5"/>
       <x:c r="C20" s="5"/>
       <x:c r="D20" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E20" s="17"/>
       <x:c r="F20" s="16"/>
@@ -1546,7 +1570,7 @@
       <x:c r="B23" s="16"/>
       <x:c r="C23" s="17"/>
       <x:c r="D23" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="17"/>
       <x:c r="F23" s="16"/>
@@ -1564,7 +1588,7 @@
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="14"/>
       <x:c r="B25" s="18" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="19"/>
       <x:c r="D25" s="18" t="s">
@@ -1576,7 +1600,7 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B26" s="20" t="s">
         <x:v>40</x:v>
@@ -1679,8 +1703,8 @@
   </x:sheetPr>
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:G6"/>
+    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <x:selection activeCell="B7" activeCellId="0" sqref="B7:G7"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1709,7 +1733,7 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B3" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="4"/>
       <x:c r="D3" s="4"/>
@@ -1739,7 +1763,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="B5" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C5" s="4"/>
       <x:c r="D5" s="4"/>
@@ -1752,7 +1776,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B6" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C6" s="8"/>
       <x:c r="D6" s="8"/>
@@ -1762,10 +1786,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="10" t="s">
-        <x:v>24</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="B7" s="12" t="s">
-        <x:v>13</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C7" s="12"/>
       <x:c r="D7" s="12"/>
@@ -1787,7 +1811,7 @@
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="11"/>
       <x:c r="B9" s="12" t="s">
-        <x:v>12</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C9" s="12"/>
       <x:c r="D9" s="12"/>
@@ -1797,10 +1821,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>23</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C10" s="5"/>
       <x:c r="D10" s="5"/>
@@ -1811,7 +1835,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="11"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>19</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="C11" s="5" t="s">
         <x:v>37</x:v>
@@ -1824,7 +1848,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="11"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="C12" s="5"/>
       <x:c r="D12" s="5"/>
@@ -1834,18 +1858,18 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="13" t="s">
-        <x:v>21</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B13" s="11" t="s">
-        <x:v>25</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C13" s="11"/>
       <x:c r="D13" s="11" t="s">
-        <x:v>28</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="E13" s="11"/>
       <x:c r="F13" s="11" t="s">
-        <x:v>20</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G13" s="11"/>
     </x:row>
@@ -1872,11 +1896,11 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="14"/>
       <x:c r="B16" s="5" t="s">
-        <x:v>43</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C16" s="5"/>
       <x:c r="D16" s="5" t="s">
-        <x:v>17</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E16" s="5"/>
       <x:c r="F16" s="5"/>
@@ -1905,7 +1929,7 @@
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A19" s="14"/>
       <x:c r="B19" s="5" t="s">
-        <x:v>26</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C19" s="5"/>
       <x:c r="D19" s="15" t="s">
@@ -1920,7 +1944,7 @@
       <x:c r="B20" s="5"/>
       <x:c r="C20" s="5"/>
       <x:c r="D20" s="16" t="s">
-        <x:v>10</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="E20" s="17"/>
       <x:c r="F20" s="16"/>
@@ -1951,7 +1975,7 @@
       <x:c r="B23" s="16"/>
       <x:c r="C23" s="17"/>
       <x:c r="D23" s="16" t="s">
-        <x:v>9</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="E23" s="17"/>
       <x:c r="F23" s="16"/>
@@ -1969,7 +1993,7 @@
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="14"/>
       <x:c r="B25" s="18" t="s">
-        <x:v>27</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C25" s="19"/>
       <x:c r="D25" s="18" t="s">
@@ -1981,7 +2005,7 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>22</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B26" s="20" t="s">
         <x:v>0</x:v>
@@ -2080,10 +2104,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B5:C11"/>
+  <x:dimension ref="B5:C19"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="B12" activeCellId="0" sqref="B12:B12"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D38" activeCellId="0" sqref="D38:D38"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -2093,27 +2117,67 @@
         <x:v>41</x:v>
       </x:c>
       <x:c r="C5" t="s">
-        <x:v>44</x:v>
+        <x:v>45</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="2:2">
+      <x:c r="B6" t="s">
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:2">
       <x:c r="B8" t="s">
-        <x:v>45</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:2">
       <x:c r="B9" t="s">
-        <x:v>47</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:2">
       <x:c r="B10" t="s">
-        <x:v>14</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:2">
       <x:c r="B11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:2">
+      <x:c r="B13" t="s">
         <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:2">
+      <x:c r="B14" t="s">
+        <x:v>52</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:2">
+      <x:c r="B15" t="s">
+        <x:v>51</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:2">
+      <x:c r="B16" t="s">
+        <x:v>49</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:2">
+      <x:c r="B17" t="s">
+        <x:v>29</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:2">
+      <x:c r="B18" t="s">
+        <x:v>53</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="2:2">
+      <x:c r="B19" t="s">
+        <x:v>54</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340).xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340).xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3437"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JJN\00 포트폴리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹디자인-웹퍼블리셔\JJN\00 포트폴리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
@@ -21,130 +21,55 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="56">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="71">
+  <x:si>
+    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
+  </x:si>
   <x:si>
     <x:t xml:space="preserve"> 1. 지인들과 조용하게 얘기하고 힙한 장소를 찾아서 커피 한잔하기 좋은 브랜드 아이덴티티의 컨셉 구축
  2. 편하고 조용하게 시간 보낼 수 있는 장소를 찾는 사용자들이 찾아오고 싶어하는 분위기의 웹사이트 구성 </x:t>
   </x:si>
   <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
-리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+    <x:t>웹사이트 이미지 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY INBODY</x:t>
   </x:si>
   <x:si>
     <x:t>2.감각적인 인테리어</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340 (1.만드는 목적 2.메뉴구성 3.레퍼런스 사이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고
-사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>acce</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY INBODY</x:t>
+    <x:t>인바디 철학/연혁</x:t>
   </x:si>
   <x:si>
     <x:t>포트폴리오 기획서</x:t>
   </x:si>
   <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
+2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
+3. "도시 속 숨겨진 아트 갤러리 같은 감성 공간" 을 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게
+4. UI/UX 기획부터 제작까지 구성 요소를 만들어 신규 페이지 구축 시 필요한 웹 디자인 &amp; 웹 퍼블리셔 능력 향상  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
   </x:si>
   <x:si>
     <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
@@ -156,59 +81,179 @@
 웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://collabospace.kr/space/angle340/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톤앤매너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
     <x:t>1. 디저트</x:t>
   </x:si>
   <x:si>
-    <x:t>ANGLE 340</x:t>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고 사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MENU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고
+사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE &amp; GALLERY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
   </x:si>
   <x:si>
     <x:t>캐릭터 모양 쿠키 일러화</x:t>
   </x:si>
   <x:si>
-    <x:t>COFFEES &amp; DESSERTS</x:t>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISIT / CONTACT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340 (1.만드는 목적 2.메뉴구성 3.레퍼런스 사이트)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따듯한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
   </x:si>
   <x:si>
     <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
   </x:si>
   <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
+리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
+  </x:si>
+  <x:si>
     <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
   </x:si>
   <x:si>
-    <x:t>웹사이트 이미지 반영</x:t>
+    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://coffee9.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
   </x:si>
   <x:si>
     <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 검색 노출의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.조용하고 아늑한 느낌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 정보의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1. 까페 브랜드 아이덴티티를 반영한 신규 웹페이지를 구현하고 카페 정체성 전문적인 더 이미지
-2. 시그니쳐 메뉴 및 신메뉴 출시 등 안내 페이지를 구현하여 사용자에게 가독성있고 정돈된 정보의 전달 목적 
-3. 조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승
-4. UI/UX 기획 제작 및 구성 요소 를 만들어 신규 페이지 구축 시 필요한 웹 디자인 &amp; 웹 퍼블리셔 능력  </x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="11">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -244,6 +289,31 @@
       <x:sz val="12"/>
       <x:color rgb="ff000000"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="11"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="14"/>
@@ -397,13 +467,16 @@
       </x:bottom>
     </x:border>
   </x:borders>
-  <x:cellStyleXfs count="1">
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="21">
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <x:cellXfs count="25">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -422,15 +495,27 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <x:alignment horizontal="general" vertical="center"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -464,13 +549,13 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -499,7 +584,7 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -530,6 +615,32 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -567,37 +678,11 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
-  <x:cellStyles count="1">
+  <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
   </x:cellStyles>
   <x:dxfs count="12">
@@ -1312,304 +1397,304 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B1" s="3"/>
-      <x:c r="C1" s="3"/>
-      <x:c r="D1" s="3"/>
-      <x:c r="E1" s="3"/>
-      <x:c r="F1" s="3"/>
-      <x:c r="G1" s="3"/>
+      <x:c r="A1" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1" s="7"/>
+      <x:c r="C1" s="7"/>
+      <x:c r="D1" s="7"/>
+      <x:c r="E1" s="7"/>
+      <x:c r="F1" s="7"/>
+      <x:c r="G1" s="7"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="4"/>
-      <x:c r="D3" s="4"/>
-      <x:c r="E3" s="4"/>
-      <x:c r="F3" s="4"/>
-      <x:c r="G3" s="4"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="8"/>
+      <x:c r="E3" s="8"/>
+      <x:c r="F3" s="8"/>
+      <x:c r="G3" s="8"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="5"/>
-      <x:c r="D4" s="5"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B4" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C4" s="9"/>
+      <x:c r="D4" s="9"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="6">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="10">
         <x:v>45765</x:v>
       </x:c>
-      <x:c r="G4" s="5"/>
+      <x:c r="G4" s="9"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="C5" s="4"/>
-      <x:c r="D5" s="4"/>
-      <x:c r="E5" s="4"/>
-      <x:c r="F5" s="4"/>
-      <x:c r="G5" s="4"/>
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C5" s="8"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="8"/>
+      <x:c r="F5" s="8"/>
+      <x:c r="G5" s="8"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="11" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C6" s="12"/>
+      <x:c r="D6" s="12"/>
+      <x:c r="E6" s="12"/>
+      <x:c r="F6" s="12"/>
+      <x:c r="G6" s="13"/>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A7" s="14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B7" s="16" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C7" s="16"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="16"/>
+      <x:c r="F7" s="16"/>
+      <x:c r="G7" s="16"/>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A8" s="15"/>
+      <x:c r="B8" s="16" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C8" s="16"/>
+      <x:c r="D8" s="16"/>
+      <x:c r="E8" s="16"/>
+      <x:c r="F8" s="16"/>
+      <x:c r="G8" s="16"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A9" s="15"/>
+      <x:c r="B9" s="16" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C9" s="16"/>
+      <x:c r="D9" s="16"/>
+      <x:c r="E9" s="16"/>
+      <x:c r="F9" s="16"/>
+      <x:c r="G9" s="16"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A10" s="14" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C10" s="9"/>
+      <x:c r="D10" s="9"/>
+      <x:c r="E10" s="9"/>
+      <x:c r="F10" s="9"/>
+      <x:c r="G10" s="9"/>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="120" customHeight="1">
+      <x:c r="A11" s="15"/>
+      <x:c r="B11" s="1" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="9"/>
+      <x:c r="E11" s="9"/>
+      <x:c r="F11" s="9"/>
+      <x:c r="G11" s="9"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A12" s="15"/>
+      <x:c r="B12" s="1" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C12" s="9"/>
+      <x:c r="D12" s="9"/>
+      <x:c r="E12" s="9"/>
+      <x:c r="F12" s="9"/>
+      <x:c r="G12" s="9"/>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A13" s="17" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B13" s="15" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C13" s="15"/>
+      <x:c r="D13" s="15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E13" s="15"/>
+      <x:c r="F13" s="15" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G13" s="15"/>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A14" s="18"/>
+      <x:c r="B14" s="9" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C14" s="9"/>
+      <x:c r="D14" s="9"/>
+      <x:c r="E14" s="9"/>
+      <x:c r="F14" s="9"/>
+      <x:c r="G14" s="9"/>
+    </x:row>
+    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A15" s="17"/>
+      <x:c r="B15" s="19"/>
+      <x:c r="C15" s="20"/>
+      <x:c r="D15" s="19"/>
+      <x:c r="E15" s="20"/>
+      <x:c r="F15" s="19"/>
+      <x:c r="G15" s="20"/>
+    </x:row>
+    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A16" s="18"/>
+      <x:c r="B16" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C16" s="9"/>
+      <x:c r="D16" s="9" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="E16" s="9"/>
+      <x:c r="F16" s="9"/>
+      <x:c r="G16" s="9"/>
+    </x:row>
+    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A17" s="18"/>
+      <x:c r="B17" s="9"/>
+      <x:c r="C17" s="9"/>
+      <x:c r="D17" s="9" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="E17" s="9"/>
+      <x:c r="F17" s="9"/>
+      <x:c r="G17" s="9"/>
+    </x:row>
+    <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A18" s="18"/>
+      <x:c r="B18" s="9"/>
+      <x:c r="C18" s="9"/>
+      <x:c r="D18" s="9"/>
+      <x:c r="E18" s="9"/>
+      <x:c r="F18" s="9"/>
+      <x:c r="G18" s="9"/>
+    </x:row>
+    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A19" s="18"/>
+      <x:c r="B19" s="9" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C19" s="9"/>
+      <x:c r="D19" s="21" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="E19" s="9"/>
+      <x:c r="F19" s="9"/>
+      <x:c r="G19" s="9"/>
+    </x:row>
+    <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A20" s="18"/>
+      <x:c r="B20" s="9"/>
+      <x:c r="C20" s="9"/>
+      <x:c r="D20" s="22" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="E20" s="23"/>
+      <x:c r="F20" s="22"/>
+      <x:c r="G20" s="23"/>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A21" s="17"/>
+      <x:c r="B21" s="19"/>
+      <x:c r="C21" s="20"/>
+      <x:c r="D21" s="19"/>
+      <x:c r="E21" s="20"/>
+      <x:c r="F21" s="19"/>
+      <x:c r="G21" s="20"/>
+    </x:row>
+    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A22" s="18"/>
+      <x:c r="B22" s="22"/>
+      <x:c r="C22" s="23"/>
+      <x:c r="D22" s="22" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="22"/>
+      <x:c r="G22" s="23"/>
+    </x:row>
+    <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A23" s="18"/>
+      <x:c r="B23" s="22"/>
+      <x:c r="C23" s="23"/>
+      <x:c r="D23" s="22" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="E23" s="23"/>
+      <x:c r="F23" s="22"/>
+      <x:c r="G23" s="23"/>
+    </x:row>
+    <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A24" s="17"/>
+      <x:c r="B24" s="19"/>
+      <x:c r="C24" s="20"/>
+      <x:c r="D24" s="19"/>
+      <x:c r="E24" s="20"/>
+      <x:c r="F24" s="19"/>
+      <x:c r="G24" s="20"/>
+    </x:row>
+    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A25" s="18"/>
+      <x:c r="B25" s="19" t="s">
         <x:v>32</x:v>
       </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="8"/>
-      <x:c r="D6" s="8"/>
-      <x:c r="E6" s="8"/>
-      <x:c r="F6" s="8"/>
-      <x:c r="G6" s="9"/>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B7" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="12"/>
-      <x:c r="D7" s="12"/>
-      <x:c r="E7" s="12"/>
-      <x:c r="F7" s="12"/>
-      <x:c r="G7" s="12"/>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="11"/>
-      <x:c r="B8" s="12" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C8" s="12"/>
-      <x:c r="D8" s="12"/>
-      <x:c r="E8" s="12"/>
-      <x:c r="F8" s="12"/>
-      <x:c r="G8" s="12"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="11"/>
-      <x:c r="B9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="12"/>
-      <x:c r="D9" s="12"/>
-      <x:c r="E9" s="12"/>
-      <x:c r="F9" s="12"/>
-      <x:c r="G9" s="12"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="10" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="5"/>
-      <x:c r="D10" s="5"/>
-      <x:c r="E10" s="5"/>
-      <x:c r="F10" s="5"/>
-      <x:c r="G10" s="5"/>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="11"/>
-      <x:c r="B11" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="D11" s="5"/>
-      <x:c r="E11" s="5"/>
-      <x:c r="F11" s="5"/>
-      <x:c r="G11" s="5"/>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="11"/>
-      <x:c r="B12" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C12" s="5"/>
-      <x:c r="D12" s="5"/>
-      <x:c r="E12" s="5"/>
-      <x:c r="F12" s="5"/>
-      <x:c r="G12" s="5"/>
-    </x:row>
-    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="13" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C13" s="11"/>
-      <x:c r="D13" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" s="11"/>
-      <x:c r="F13" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G13" s="11"/>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="14"/>
-      <x:c r="B14" s="5" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="C14" s="5"/>
-      <x:c r="D14" s="5"/>
-      <x:c r="E14" s="5"/>
-      <x:c r="F14" s="5"/>
-      <x:c r="G14" s="5"/>
-    </x:row>
-    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="13"/>
-      <x:c r="B15" s="18"/>
-      <x:c r="C15" s="19"/>
-      <x:c r="D15" s="18"/>
-      <x:c r="E15" s="19"/>
-      <x:c r="F15" s="18"/>
-      <x:c r="G15" s="19"/>
-    </x:row>
-    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="14"/>
-      <x:c r="B16" s="5" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="C16" s="5"/>
-      <x:c r="D16" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E16" s="5"/>
-      <x:c r="F16" s="5"/>
-      <x:c r="G16" s="5"/>
-    </x:row>
-    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="14"/>
-      <x:c r="B17" s="5"/>
-      <x:c r="C17" s="5"/>
-      <x:c r="D17" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E17" s="5"/>
-      <x:c r="F17" s="5"/>
-      <x:c r="G17" s="5"/>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="14"/>
-      <x:c r="B18" s="5"/>
-      <x:c r="C18" s="5"/>
-      <x:c r="D18" s="5"/>
-      <x:c r="E18" s="5"/>
-      <x:c r="F18" s="5"/>
-      <x:c r="G18" s="5"/>
-    </x:row>
-    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="14"/>
-      <x:c r="B19" s="5" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C19" s="5"/>
-      <x:c r="D19" s="15" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E19" s="5"/>
-      <x:c r="F19" s="5"/>
-      <x:c r="G19" s="5"/>
-    </x:row>
-    <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="14"/>
-      <x:c r="B20" s="5"/>
-      <x:c r="C20" s="5"/>
-      <x:c r="D20" s="16" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E20" s="17"/>
-      <x:c r="F20" s="16"/>
-      <x:c r="G20" s="17"/>
-    </x:row>
-    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="13"/>
-      <x:c r="B21" s="18"/>
-      <x:c r="C21" s="19"/>
-      <x:c r="D21" s="18"/>
-      <x:c r="E21" s="19"/>
-      <x:c r="F21" s="18"/>
-      <x:c r="G21" s="19"/>
-    </x:row>
-    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="14"/>
-      <x:c r="B22" s="16"/>
-      <x:c r="C22" s="17"/>
-      <x:c r="D22" s="16" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E22" s="17"/>
-      <x:c r="F22" s="16"/>
-      <x:c r="G22" s="17"/>
-    </x:row>
-    <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="14"/>
-      <x:c r="B23" s="16"/>
-      <x:c r="C23" s="17"/>
-      <x:c r="D23" s="16" t="s">
+      <x:c r="C25" s="20"/>
+      <x:c r="D25" s="19" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E23" s="17"/>
-      <x:c r="F23" s="16"/>
-      <x:c r="G23" s="17"/>
-    </x:row>
-    <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="13"/>
-      <x:c r="B24" s="18"/>
-      <x:c r="C24" s="19"/>
-      <x:c r="D24" s="18"/>
-      <x:c r="E24" s="19"/>
-      <x:c r="F24" s="18"/>
-      <x:c r="G24" s="19"/>
-    </x:row>
-    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="14"/>
-      <x:c r="B25" s="18" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C25" s="19"/>
-      <x:c r="D25" s="18" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E25" s="19"/>
-      <x:c r="F25" s="18"/>
-      <x:c r="G25" s="19"/>
+      <x:c r="E25" s="20"/>
+      <x:c r="F25" s="19"/>
+      <x:c r="G25" s="20"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B26" s="20" t="s">
         <x:v>40</x:v>
       </x:c>
-      <x:c r="C26" s="20"/>
-      <x:c r="D26" s="20"/>
-      <x:c r="E26" s="20"/>
-      <x:c r="F26" s="20"/>
-      <x:c r="G26" s="20"/>
+      <x:c r="B26" s="24" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C26" s="24"/>
+      <x:c r="D26" s="24"/>
+      <x:c r="E26" s="24"/>
+      <x:c r="F26" s="24"/>
+      <x:c r="G26" s="24"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -1651,6 +1736,9 @@
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D14:E14"/>
     <x:mergeCell ref="F14:G14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="B16:C16"/>
     <x:mergeCell ref="D16:E16"/>
     <x:mergeCell ref="F16:G16"/>
@@ -1666,25 +1754,22 @@
     <x:mergeCell ref="B20:C20"/>
     <x:mergeCell ref="D20:E20"/>
     <x:mergeCell ref="F20:G20"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="D21:E21"/>
+    <x:mergeCell ref="F21:G21"/>
     <x:mergeCell ref="B22:C22"/>
     <x:mergeCell ref="D22:E22"/>
     <x:mergeCell ref="F22:G22"/>
     <x:mergeCell ref="B23:C23"/>
     <x:mergeCell ref="D23:E23"/>
     <x:mergeCell ref="F23:G23"/>
+    <x:mergeCell ref="B24:C24"/>
+    <x:mergeCell ref="D24:E24"/>
+    <x:mergeCell ref="F24:G24"/>
     <x:mergeCell ref="B25:C25"/>
     <x:mergeCell ref="D25:E25"/>
     <x:mergeCell ref="F25:G25"/>
     <x:mergeCell ref="B26:G26"/>
-    <x:mergeCell ref="F15:G15"/>
-    <x:mergeCell ref="D15:E15"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="F21:G21"/>
-    <x:mergeCell ref="D21:E21"/>
-    <x:mergeCell ref="B21:C21"/>
-    <x:mergeCell ref="F24:G24"/>
-    <x:mergeCell ref="D24:E24"/>
-    <x:mergeCell ref="B24:C24"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
@@ -1704,7 +1789,7 @@
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="B7" activeCellId="0" sqref="B7:G7"/>
+      <x:selection activeCell="B5" activeCellId="0" sqref="B5:G5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1717,304 +1802,286 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="3" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B1" s="3"/>
-      <x:c r="C1" s="3"/>
-      <x:c r="D1" s="3"/>
-      <x:c r="E1" s="3"/>
-      <x:c r="F1" s="3"/>
-      <x:c r="G1" s="3"/>
+      <x:c r="A1" s="7" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="B1" s="7"/>
+      <x:c r="C1" s="7"/>
+      <x:c r="D1" s="7"/>
+      <x:c r="E1" s="7"/>
+      <x:c r="F1" s="7"/>
+      <x:c r="G1" s="7"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>6</x:v>
-      </x:c>
-      <x:c r="B3" s="4" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="4"/>
-      <x:c r="D3" s="4"/>
-      <x:c r="E3" s="4"/>
-      <x:c r="F3" s="4"/>
-      <x:c r="G3" s="4"/>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B3" s="8" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C3" s="8"/>
+      <x:c r="D3" s="8"/>
+      <x:c r="E3" s="8"/>
+      <x:c r="F3" s="8"/>
+      <x:c r="G3" s="8"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>3</x:v>
-      </x:c>
-      <x:c r="B4" s="5" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="C4" s="5"/>
-      <x:c r="D4" s="5"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="B4" s="9" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="C4" s="9"/>
+      <x:c r="D4" s="9"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="F4" s="6">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="F4" s="10">
         <x:v>45765</x:v>
       </x:c>
-      <x:c r="G4" s="5"/>
+      <x:c r="G4" s="9"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="B5" s="4" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C5" s="4"/>
-      <x:c r="D5" s="4"/>
-      <x:c r="E5" s="4"/>
-      <x:c r="F5" s="4"/>
-      <x:c r="G5" s="4"/>
-    </x:row>
-    <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="B5" s="8" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="C5" s="8"/>
+      <x:c r="D5" s="8"/>
+      <x:c r="E5" s="8"/>
+      <x:c r="F5" s="8"/>
+      <x:c r="G5" s="8"/>
+    </x:row>
+    <x:row r="6" spans="1:7" ht="69.75" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>32</x:v>
-      </x:c>
-      <x:c r="B6" s="7" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C6" s="8"/>
-      <x:c r="D6" s="8"/>
-      <x:c r="E6" s="8"/>
-      <x:c r="F6" s="8"/>
-      <x:c r="G6" s="9"/>
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="11" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="C6" s="12"/>
+      <x:c r="D6" s="12"/>
+      <x:c r="E6" s="12"/>
+      <x:c r="F6" s="12"/>
+      <x:c r="G6" s="13"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="10" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="B7" s="12" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="C7" s="12"/>
-      <x:c r="D7" s="12"/>
-      <x:c r="E7" s="12"/>
-      <x:c r="F7" s="12"/>
-      <x:c r="G7" s="12"/>
+      <x:c r="A7" s="14" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="B7" s="16" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="C7" s="16"/>
+      <x:c r="D7" s="16"/>
+      <x:c r="E7" s="16"/>
+      <x:c r="F7" s="16"/>
+      <x:c r="G7" s="16"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="11"/>
-      <x:c r="B8" s="12" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C8" s="12"/>
-      <x:c r="D8" s="12"/>
-      <x:c r="E8" s="12"/>
-      <x:c r="F8" s="12"/>
-      <x:c r="G8" s="12"/>
+      <x:c r="A8" s="15"/>
+      <x:c r="B8" s="16"/>
+      <x:c r="C8" s="16"/>
+      <x:c r="D8" s="16"/>
+      <x:c r="E8" s="16"/>
+      <x:c r="F8" s="16"/>
+      <x:c r="G8" s="16"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="11"/>
-      <x:c r="B9" s="12" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C9" s="12"/>
-      <x:c r="D9" s="12"/>
-      <x:c r="E9" s="12"/>
-      <x:c r="F9" s="12"/>
-      <x:c r="G9" s="12"/>
+      <x:c r="A9" s="15"/>
+      <x:c r="B9" s="16"/>
+      <x:c r="C9" s="16"/>
+      <x:c r="D9" s="16"/>
+      <x:c r="E9" s="16"/>
+      <x:c r="F9" s="16"/>
+      <x:c r="G9" s="16"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="10" t="s">
-        <x:v>28</x:v>
+      <x:c r="A10" s="14" t="s">
+        <x:v>41</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="C10" s="5"/>
-      <x:c r="D10" s="5"/>
-      <x:c r="E10" s="5"/>
-      <x:c r="F10" s="5"/>
-      <x:c r="G10" s="5"/>
+        <x:v>39</x:v>
+      </x:c>
+      <x:c r="C10" s="9"/>
+      <x:c r="D10" s="9"/>
+      <x:c r="E10" s="9"/>
+      <x:c r="F10" s="9"/>
+      <x:c r="G10" s="9"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="11"/>
+      <x:c r="A11" s="15"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="C11" s="9" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="9"/>
+      <x:c r="E11" s="9"/>
+      <x:c r="F11" s="9"/>
+      <x:c r="G11" s="9"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A12" s="15"/>
+      <x:c r="B12" s="1" t="s">
         <x:v>37</x:v>
       </x:c>
-      <x:c r="D11" s="5"/>
-      <x:c r="E11" s="5"/>
-      <x:c r="F11" s="5"/>
-      <x:c r="G11" s="5"/>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="11"/>
-      <x:c r="B12" s="1" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="C12" s="5"/>
-      <x:c r="D12" s="5"/>
-      <x:c r="E12" s="5"/>
-      <x:c r="F12" s="5"/>
-      <x:c r="G12" s="5"/>
+      <x:c r="C12" s="9"/>
+      <x:c r="D12" s="9"/>
+      <x:c r="E12" s="9"/>
+      <x:c r="F12" s="9"/>
+      <x:c r="G12" s="9"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="13" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="B13" s="11" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C13" s="11"/>
-      <x:c r="D13" s="11" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="E13" s="11"/>
-      <x:c r="F13" s="11" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G13" s="11"/>
+      <x:c r="A13" s="17" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B13" s="15" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="C13" s="15"/>
+      <x:c r="D13" s="15" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="E13" s="15"/>
+      <x:c r="F13" s="15" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="G13" s="15"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="14"/>
-      <x:c r="B14" s="5" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="C14" s="5"/>
-      <x:c r="D14" s="5"/>
-      <x:c r="E14" s="5"/>
-      <x:c r="F14" s="5"/>
-      <x:c r="G14" s="5"/>
+      <x:c r="A14" s="18"/>
+      <x:c r="B14" s="9" t="s">
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="C14" s="9"/>
+      <x:c r="D14" s="9"/>
+      <x:c r="E14" s="9"/>
+      <x:c r="F14" s="9"/>
+      <x:c r="G14" s="9"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="13"/>
-      <x:c r="B15" s="18"/>
-      <x:c r="C15" s="19"/>
-      <x:c r="D15" s="18"/>
-      <x:c r="E15" s="19"/>
-      <x:c r="F15" s="18"/>
-      <x:c r="G15" s="19"/>
+      <x:c r="A15" s="17"/>
+      <x:c r="B15" s="19"/>
+      <x:c r="C15" s="20"/>
+      <x:c r="D15" s="19"/>
+      <x:c r="E15" s="20"/>
+      <x:c r="F15" s="19"/>
+      <x:c r="G15" s="20"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="14"/>
-      <x:c r="B16" s="5" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="C16" s="5"/>
-      <x:c r="D16" s="5" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E16" s="5"/>
-      <x:c r="F16" s="5"/>
-      <x:c r="G16" s="5"/>
+      <x:c r="A16" s="18"/>
+      <x:c r="B16" s="9" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="C16" s="9"/>
+      <x:c r="D16" s="9"/>
+      <x:c r="E16" s="9"/>
+      <x:c r="F16" s="9"/>
+      <x:c r="G16" s="9"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="14"/>
-      <x:c r="B17" s="5"/>
-      <x:c r="C17" s="5"/>
-      <x:c r="D17" s="5" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="E17" s="5"/>
-      <x:c r="F17" s="5"/>
-      <x:c r="G17" s="5"/>
+      <x:c r="A17" s="18"/>
+      <x:c r="B17" s="9"/>
+      <x:c r="C17" s="9"/>
+      <x:c r="D17" s="9"/>
+      <x:c r="E17" s="9"/>
+      <x:c r="F17" s="9"/>
+      <x:c r="G17" s="9"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="14"/>
-      <x:c r="B18" s="5"/>
-      <x:c r="C18" s="5"/>
-      <x:c r="D18" s="5"/>
-      <x:c r="E18" s="5"/>
-      <x:c r="F18" s="5"/>
-      <x:c r="G18" s="5"/>
+      <x:c r="A18" s="18"/>
+      <x:c r="B18" s="9" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C18" s="9"/>
+      <x:c r="D18" s="9"/>
+      <x:c r="E18" s="9"/>
+      <x:c r="F18" s="9"/>
+      <x:c r="G18" s="9"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="14"/>
-      <x:c r="B19" s="5" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="C19" s="5"/>
-      <x:c r="D19" s="15" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E19" s="5"/>
-      <x:c r="F19" s="5"/>
-      <x:c r="G19" s="5"/>
+      <x:c r="A19" s="18"/>
+      <x:c r="B19" s="9"/>
+      <x:c r="C19" s="9"/>
+      <x:c r="D19" s="21"/>
+      <x:c r="E19" s="9"/>
+      <x:c r="F19" s="9"/>
+      <x:c r="G19" s="9"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="14"/>
-      <x:c r="B20" s="5"/>
-      <x:c r="C20" s="5"/>
-      <x:c r="D20" s="16" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="E20" s="17"/>
-      <x:c r="F20" s="16"/>
-      <x:c r="G20" s="17"/>
+      <x:c r="A20" s="18"/>
+      <x:c r="B20" s="22" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C20" s="23"/>
+      <x:c r="D20" s="22"/>
+      <x:c r="E20" s="23"/>
+      <x:c r="F20" s="22"/>
+      <x:c r="G20" s="23"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="13"/>
-      <x:c r="B21" s="18"/>
-      <x:c r="C21" s="19"/>
-      <x:c r="D21" s="18"/>
-      <x:c r="E21" s="19"/>
-      <x:c r="F21" s="18"/>
-      <x:c r="G21" s="19"/>
+      <x:c r="A21" s="17"/>
+      <x:c r="B21" s="22"/>
+      <x:c r="C21" s="23"/>
+      <x:c r="D21" s="19"/>
+      <x:c r="E21" s="20"/>
+      <x:c r="F21" s="19"/>
+      <x:c r="G21" s="20"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="14"/>
-      <x:c r="B22" s="16"/>
-      <x:c r="C22" s="17"/>
-      <x:c r="D22" s="16" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="E22" s="17"/>
-      <x:c r="F22" s="16"/>
-      <x:c r="G22" s="17"/>
+      <x:c r="A22" s="18"/>
+      <x:c r="B22" s="22"/>
+      <x:c r="C22" s="23"/>
+      <x:c r="D22" s="22"/>
+      <x:c r="E22" s="23"/>
+      <x:c r="F22" s="22"/>
+      <x:c r="G22" s="23"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="14"/>
-      <x:c r="B23" s="16"/>
-      <x:c r="C23" s="17"/>
-      <x:c r="D23" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="E23" s="17"/>
-      <x:c r="F23" s="16"/>
-      <x:c r="G23" s="17"/>
+      <x:c r="A23" s="18"/>
+      <x:c r="B23" s="22"/>
+      <x:c r="C23" s="23"/>
+      <x:c r="D23" s="22"/>
+      <x:c r="E23" s="23"/>
+      <x:c r="F23" s="22"/>
+      <x:c r="G23" s="23"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="13"/>
-      <x:c r="B24" s="18"/>
-      <x:c r="C24" s="19"/>
-      <x:c r="D24" s="18"/>
-      <x:c r="E24" s="19"/>
-      <x:c r="F24" s="18"/>
-      <x:c r="G24" s="19"/>
+      <x:c r="A24" s="17"/>
+      <x:c r="B24" s="19"/>
+      <x:c r="C24" s="20"/>
+      <x:c r="D24" s="19"/>
+      <x:c r="E24" s="20"/>
+      <x:c r="F24" s="19"/>
+      <x:c r="G24" s="20"/>
     </x:row>
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="14"/>
-      <x:c r="B25" s="18" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C25" s="19"/>
-      <x:c r="D25" s="18" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E25" s="19"/>
-      <x:c r="F25" s="18"/>
-      <x:c r="G25" s="19"/>
+      <x:c r="A25" s="18"/>
+      <x:c r="B25" s="19"/>
+      <x:c r="C25" s="20"/>
+      <x:c r="D25" s="19"/>
+      <x:c r="E25" s="20"/>
+      <x:c r="F25" s="19"/>
+      <x:c r="G25" s="20"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B26" s="20" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C26" s="20"/>
-      <x:c r="D26" s="20"/>
-      <x:c r="E26" s="20"/>
-      <x:c r="F26" s="20"/>
-      <x:c r="G26" s="20"/>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B26" s="24" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C26" s="24"/>
+      <x:c r="D26" s="24"/>
+      <x:c r="E26" s="24"/>
+      <x:c r="F26" s="24"/>
+      <x:c r="G26" s="24"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -2056,6 +2123,9 @@
     <x:mergeCell ref="B14:C14"/>
     <x:mergeCell ref="D14:E14"/>
     <x:mergeCell ref="F14:G14"/>
+    <x:mergeCell ref="B15:C15"/>
+    <x:mergeCell ref="D15:E15"/>
+    <x:mergeCell ref="F15:G15"/>
     <x:mergeCell ref="B16:C16"/>
     <x:mergeCell ref="D16:E16"/>
     <x:mergeCell ref="F16:G16"/>
@@ -2071,30 +2141,25 @@
     <x:mergeCell ref="B20:C20"/>
     <x:mergeCell ref="D20:E20"/>
     <x:mergeCell ref="F20:G20"/>
+    <x:mergeCell ref="B21:C21"/>
+    <x:mergeCell ref="D21:E21"/>
+    <x:mergeCell ref="F21:G21"/>
     <x:mergeCell ref="B22:C22"/>
     <x:mergeCell ref="D22:E22"/>
     <x:mergeCell ref="F22:G22"/>
     <x:mergeCell ref="B23:C23"/>
     <x:mergeCell ref="D23:E23"/>
     <x:mergeCell ref="F23:G23"/>
+    <x:mergeCell ref="B24:C24"/>
+    <x:mergeCell ref="D24:E24"/>
+    <x:mergeCell ref="F24:G24"/>
     <x:mergeCell ref="B25:C25"/>
     <x:mergeCell ref="D25:E25"/>
     <x:mergeCell ref="F25:G25"/>
     <x:mergeCell ref="B26:G26"/>
-    <x:mergeCell ref="F15:G15"/>
-    <x:mergeCell ref="D15:E15"/>
-    <x:mergeCell ref="B15:C15"/>
-    <x:mergeCell ref="F21:G21"/>
-    <x:mergeCell ref="D21:E21"/>
-    <x:mergeCell ref="B21:C21"/>
-    <x:mergeCell ref="F24:G24"/>
-    <x:mergeCell ref="D24:E24"/>
-    <x:mergeCell ref="B24:C24"/>
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
-    <x:hyperlink ref="B8:G8" r:id="rId2"/>
-    <x:hyperlink ref="B9:G9" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2104,83 +2169,146 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B5:C19"/>
+  <x:dimension ref="B4:E23"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D38" activeCellId="0" sqref="D38:D38"/>
+    <x:sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="D9" activeCellId="0" sqref="D9:D9"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
+  <x:cols>
+    <x:col min="2" max="2" width="55.125" customWidth="1"/>
+    <x:col min="3" max="3" width="35.30859375" style="4" bestFit="1" customWidth="1"/>
+    <x:col min="5" max="5" width="36.625" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
+    <x:row r="4" spans="2:4">
+      <x:c r="B4" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C4" s="4" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="D4" t="s">
+        <x:v>38</x:v>
+      </x:c>
+    </x:row>
     <x:row r="5" spans="2:3">
-      <x:c r="B5" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="C5" t="s">
-        <x:v>45</x:v>
+      <x:c r="B5" s="4" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="C5" s="4" t="s">
+        <x:v>59</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:2">
-      <x:c r="B6" t="s">
-        <x:v>43</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="8" spans="2:2">
-      <x:c r="B8" t="s">
-        <x:v>47</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="9" spans="2:2">
-      <x:c r="B9" t="s">
+      <x:c r="B6" s="4" t="s">
         <x:v>50</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="2:2">
-      <x:c r="B10" t="s">
+    <x:row r="7" spans="2:2">
+      <x:c r="B7" s="4"/>
+    </x:row>
+    <x:row r="8" spans="2:4">
+      <x:c r="B8" s="4" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" t="s">
+        <x:v>30</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="2:5" ht="65.5">
+      <x:c r="B9" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="C9" s="4" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="D9" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E9" s="4" t="s">
+        <x:v>56</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:3" ht="98.25">
+      <x:c r="B10" s="4" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="C10" s="4" t="s">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:3">
+      <x:c r="B11" s="4" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="C11" s="5" t="s">
+        <x:v>27</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:3" customFormat="1" ht="65.5">
+      <x:c r="B12" s="4"/>
+      <x:c r="C12" s="6" t="s">
+        <x:v>55</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:3" ht="114.59999999999999431566">
+      <x:c r="B13" s="4" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C13" s="4" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="2:2">
+      <x:c r="B14" s="4"/>
+    </x:row>
+    <x:row r="15" spans="2:2" ht="32.75">
+      <x:c r="B15" s="4" t="s">
+        <x:v>64</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:2">
+      <x:c r="B16" s="4" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:2" ht="32.75">
+      <x:c r="B17" s="4" t="s">
         <x:v>13</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="2:2">
-      <x:c r="B11" t="s">
-        <x:v>48</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:2">
-      <x:c r="B13" t="s">
-        <x:v>46</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="2:2">
-      <x:c r="B14" t="s">
-        <x:v>52</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="15" spans="2:2">
-      <x:c r="B15" t="s">
+    <x:row r="18" spans="2:2">
+      <x:c r="B18" s="4" t="s">
         <x:v>51</x:v>
       </x:c>
     </x:row>
-    <x:row r="16" spans="2:2">
-      <x:c r="B16" t="s">
-        <x:v>49</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:2">
-      <x:c r="B17" t="s">
-        <x:v>29</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:2">
-      <x:c r="B18" t="s">
-        <x:v>53</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:2">
-      <x:c r="B19" t="s">
-        <x:v>54</x:v>
+    <x:row r="19" spans="2:2" ht="49.14999999999999857891">
+      <x:c r="B19" s="4" t="s">
+        <x:v>63</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20" spans="2:2">
+      <x:c r="B20" s="4" t="s">
+        <x:v>61</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21" spans="2:2">
+      <x:c r="B21" s="4" t="s">
+        <x:v>60</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="2:2">
+      <x:c r="B23" s="3" t="s">
+        <x:v>28</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
+  <x:hyperlinks>
+    <x:hyperlink ref="B23:B23" r:id="rId1"/>
+    <x:hyperlink ref="C11:C11" r:id="rId2"/>
+  </x:hyperlinks>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>
 </x:worksheet>
